--- a/Fuctionality&Requirements/ProgramFunctionality/ProjectTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/ProjectTree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C515C-7038-4770-8A9E-00AAB80328DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B2DCF-F9A7-455F-AAE5-8E19721CC290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12375" yWindow="525" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMaintDesign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="180">
   <si>
     <t>№</t>
   </si>
@@ -85,9 +85,6 @@
     <t>There should be present the version of API PRO in the right top corner of the program.</t>
   </si>
   <si>
-    <t>The program should have the next tabs on the tollbar:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -  File</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>If the user clicks on the "Critical condition" item, then the projects or work orders displayed in the detailed view will be checked for critical conditions. The display will be changed. The Date status column will instead of status show the presence of any critical conditions. The color red indicates a critical condition.</t>
   </si>
   <si>
-    <t>The color legend should appear in the bottom of the "API PRO - tree" windwo if the user clicks on the "Color legend" item.</t>
-  </si>
-  <si>
     <t>The color legend should disappear if the user clicks on the "Color legend" item again.</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Tree structure</t>
   </si>
   <si>
-    <t>The user should be able to collapse and unford the elements of the tree.</t>
-  </si>
-  <si>
     <t>The tree structure should consist of the next elements:</t>
   </si>
   <si>
@@ -343,9 +334,6 @@
     <t xml:space="preserve">If the subelement has the connected subelements too, the appropriate cells of the table should be colored. </t>
   </si>
   <si>
-    <t>Context menu</t>
-  </si>
-  <si>
     <t>The number of elements in the context menu should depend on the type of element for which this context menu is called.</t>
   </si>
   <si>
@@ -361,9 +349,6 @@
     <t xml:space="preserve"> - Budget</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Job rurvey</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Critical conditions</t>
   </si>
   <si>
@@ -379,9 +364,6 @@
     <t>If the user clicks on the "View" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) project_tree</t>
-  </si>
-  <si>
     <t>If the user clicks on the "View" item for any work order the next program should be opened for the selected work order:</t>
   </si>
   <si>
@@ -461,6 +443,141 @@
   </si>
   <si>
     <t>The "Auto find" option should turned off if the user clicks on the "Auto find" button  while the "Project/WO key" field was empty.</t>
+  </si>
+  <si>
+    <t>The program should have the next tabs on the toolbar:</t>
+  </si>
+  <si>
+    <t>The color legend should appear in the bottom of the "API PRO - tree" window if the user clicks on the "Color legend" item.</t>
+  </si>
+  <si>
+    <t>The user should be able to collapse and unfold the elements of the tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Job survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) project</t>
+  </si>
+  <si>
+    <t>Context menu (Tree)</t>
+  </si>
+  <si>
+    <t>Context menu (Table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - New project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Attach work order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Export to MS Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Import from MS Project</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "View" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "New project" item the next program should be opened:</t>
+  </si>
+  <si>
+    <t>The program should be opened in the "New" mode.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Edit" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Delete" item the "Question" window should appear. If the user clicks on the "Yes" button then the selected project should be deleted.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Document" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Attach work order" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) project_plan[Project_key]</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Budget" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) project[1]</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Job survey" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (apicbf) jobsurv[1]</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Critical conditions" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - (select) project_report[3]</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Delay" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Purchase" item the next program should be opened for the selected project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (browse) purchase_order_line[2] </t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Export to MS Project" item the selected project should be exported to MS Project.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Import from MS Project" item the project should be imported from MS Project.</t>
+  </si>
+  <si>
+    <t>The context menu for work orders should have the next items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Remove work order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Define conditions</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "View" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Document" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "New project" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) projec</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Attach work order" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Remove work order" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (browse) project_plan</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Define conditions" item the next program should be opened for the selected work order:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (browse) critcond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The "Question" window should appear. If the user clicks on the "Yes" button then the work order - project combination should be deleted.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -674,12 +791,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,6 +890,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,92 +1016,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,17 +1333,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C135"/>
+  <dimension ref="A2:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1105,930 +1359,1626 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="32" t="str">
+        <f t="shared" ref="C5:C12" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="56"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="56"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="56"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="56"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="56"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="56"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="B29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="33" t="str">
+        <f t="shared" ref="C29:C30" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5"/>
+      <c r="B30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>C85809</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5"/>
+      <c r="B31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="B32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="56"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="22" t="s">
+      <c r="C36" s="56"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="56"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="56"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="56"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="56"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="56"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="56"/>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="B43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="5"/>
+      <c r="B44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="56"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="56"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="56"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+      <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="17"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="56"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C52" s="56"/>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="5"/>
+      <c r="B53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="5"/>
+      <c r="B54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="5"/>
+      <c r="B55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="B56" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="5"/>
+      <c r="B57" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
+        <v>C85811</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="33" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
+        <v>C85812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
+        <v>C85812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="52"/>
+      <c r="B60" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="24"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27" t="s">
+      <c r="C60" s="53"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="52"/>
+      <c r="B61" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="27" t="s">
+      <c r="C61" s="53"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="52"/>
+      <c r="B62" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="53"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="25"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="53"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="52"/>
+      <c r="B64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="22" t="s">
+      <c r="C64" s="53"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="52"/>
+      <c r="B65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="25"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="22" t="s">
+      <c r="C65" s="53"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="52"/>
+      <c r="B66" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="53"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="25"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="26"/>
+      <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="5"/>
+      <c r="B68" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="33" t="str">
+        <f t="shared" ref="C68:C76" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="5"/>
+      <c r="B69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="5"/>
+      <c r="B70" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="5"/>
+      <c r="B71" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="5"/>
+      <c r="B72" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="5"/>
+      <c r="B73" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="5"/>
+      <c r="B74" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="5"/>
+      <c r="B75" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>C85812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
+      <c r="C78" s="60"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="B79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="30"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="4" t="s">
+      <c r="C79" s="60"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="58"/>
+      <c r="B80" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="32"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="4" t="s">
+      <c r="C80" s="60"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="32"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="4" t="s">
+      <c r="C81" s="60"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="32"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="4" t="s">
+      <c r="C82" s="61"/>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="32"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="4" t="s">
+      <c r="C83" s="30"/>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="34"/>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16" t="s">
+      <c r="C84" s="30"/>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="30"/>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16" t="s">
+      <c r="C85" s="30"/>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="30"/>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="28" t="s">
+      <c r="C86" s="30"/>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="30"/>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16" t="s">
+      <c r="C87" s="23" t="str">
+        <f t="shared" ref="C87:C94" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85813","C85813")</f>
+        <v>C85813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="30"/>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="35"/>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="35"/>
+      <c r="C88" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="5"/>
+      <c r="B89" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="5"/>
+      <c r="B90" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="5"/>
+      <c r="B91" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="5"/>
+      <c r="B92" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="5"/>
+      <c r="B93" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="5"/>
+      <c r="B94" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>C85813</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+      <c r="B97" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="54"/>
+      <c r="B98" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+      <c r="C98" s="56"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="54"/>
+      <c r="B99" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" s="17"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="56"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="5"/>
+      <c r="B100" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="50"/>
+      <c r="C101" s="51"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
-      <c r="B102" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="8"/>
+      <c r="B102" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="5"/>
+      <c r="B103" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="B104" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="5"/>
+      <c r="B104" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="35" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+      <c r="B107" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="55" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="54"/>
+      <c r="B108" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="56"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="B109" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="56"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="54"/>
+      <c r="B110" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="21" t="s">
+      <c r="C110" s="56"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="54"/>
+      <c r="B111" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="56"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="54"/>
+      <c r="B112" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C107" s="17"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="22" t="s">
+      <c r="C112" s="56"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="54"/>
+      <c r="B113" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="17"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="22" t="s">
+      <c r="C113" s="56"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="54"/>
+      <c r="B114" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="17"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="22" t="s">
+      <c r="C114" s="56"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="22" t="s">
+      <c r="C115" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="52"/>
+      <c r="B116" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="53"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" s="43"/>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="17"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="B112" s="22" t="s">
+      <c r="C118" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="B119" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="43"/>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="40"/>
+      <c r="B120" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="B113" s="22" t="s">
+      <c r="C120" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="17"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="23" t="s">
+      <c r="C121" s="43"/>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="40"/>
+      <c r="B122" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="17"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="36" t="s">
+      <c r="C122" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
+      <c r="B123" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="24"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="22" t="s">
+      <c r="C123" s="43"/>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="42"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="43"/>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="43"/>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="40"/>
+      <c r="B128" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="43"/>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="43"/>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="43"/>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
+        <v>C85814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="43"/>
+    </row>
+    <row r="136" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="50"/>
+      <c r="C136" s="51"/>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" s="32" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="52"/>
+      <c r="B139" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" s="53"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="52"/>
+      <c r="B140" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="53"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="52"/>
+      <c r="B141" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="53"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="52"/>
+      <c r="B142" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="53"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="52"/>
+      <c r="B143" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" s="53"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="52"/>
+      <c r="B144" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="53"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="52"/>
+      <c r="B145" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="53"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="52"/>
+      <c r="B146" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="53"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="52"/>
+      <c r="B147" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" s="53"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="52"/>
+      <c r="B148" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="25"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="23" t="s">
+      <c r="C148" s="53"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="52"/>
+      <c r="B149" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="26"/>
-    </row>
-    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="24"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
-      <c r="B119" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="26"/>
-    </row>
-    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="24"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="26"/>
-    </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
-      <c r="B122" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="24"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" s="26"/>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="24"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="26"/>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="24"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="23" t="s">
+      <c r="C149" s="53"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="52"/>
+      <c r="B150" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" s="53"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="43"/>
+    </row>
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="40"/>
+      <c r="B152" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="41"/>
+      <c r="B153" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="43"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+      <c r="B154" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="63" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="47"/>
+      <c r="B155" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="48"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="45"/>
+      <c r="B156" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="46"/>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
+      <c r="B157" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" s="63" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="45"/>
+      <c r="B158" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" s="46"/>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" s="36" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="40"/>
+      <c r="B160" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="43"/>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="40"/>
+      <c r="B162" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="41"/>
+      <c r="B163" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="43"/>
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="40"/>
+      <c r="B164" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+      <c r="B165" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="43"/>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="40"/>
+      <c r="B166" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="41"/>
+      <c r="B167" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C167" s="43"/>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="40"/>
+      <c r="B168" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+      <c r="B169" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="43"/>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="40"/>
+      <c r="B170" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="41"/>
+      <c r="B171" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="26"/>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="24"/>
-      <c r="B128" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="24"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="26"/>
-    </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="24"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C131" s="26"/>
-    </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C132" s="24"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C133" s="26"/>
-    </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="24"/>
-      <c r="B134" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C134" s="24"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C135" s="26"/>
+      <c r="C171" s="43"/>
+    </row>
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="63" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="45"/>
+      <c r="B173" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="46"/>
+    </row>
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="36" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="36" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="40"/>
+      <c r="B176" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="52"/>
+      <c r="B177" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C177" s="53"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="52"/>
+      <c r="B178" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" s="53"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="52"/>
+      <c r="B179" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="53"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="52"/>
+      <c r="B180" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" s="53"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="52"/>
+      <c r="B181" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181" s="53"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="41"/>
+      <c r="B182" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" s="43"/>
+    </row>
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="40"/>
+      <c r="B183" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="41"/>
+      <c r="B184" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C184" s="43"/>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="40"/>
+      <c r="B185" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C185" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
+      <c r="B186" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C186" s="43"/>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="40"/>
+      <c r="B187" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C187" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="52"/>
+      <c r="B188" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C188" s="53"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="41"/>
+      <c r="B189" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="43"/>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="40"/>
+      <c r="B190" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="41"/>
+      <c r="B191" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" s="43"/>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="40"/>
+      <c r="B192" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="52"/>
+      <c r="B193" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C193" s="53"/>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="41"/>
+      <c r="B194" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C194" s="43"/>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="40"/>
+      <c r="B195" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C195" s="57" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
+        <v>C85815</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="41"/>
+      <c r="B196" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="79">
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A176:A182"/>
+    <mergeCell ref="C176:C182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="C185:C186"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="C134:C135"/>
     <mergeCell ref="C128:C129"/>
@@ -2071,6 +3021,29 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="C20:C28"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A138:A151"/>
+    <mergeCell ref="C138:C151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="C172:C173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2087,13 +3060,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="38" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9" style="26" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" s="15" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="12" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,86 +3078,86 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="39"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="41"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="41"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="16" t="s">
-        <v>135</v>
+      <c r="B10" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="16" t="s">
-        <v>134</v>
+      <c r="B11" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="41"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="16" t="s">
-        <v>138</v>
+      <c r="B13" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="16" t="s">
-        <v>139</v>
+      <c r="B14" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="16" t="s">
-        <v>140</v>
+      <c r="B15" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C15" s="5"/>
     </row>

--- a/Fuctionality&Requirements/ProgramFunctionality/ProjectTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/ProjectTree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B2DCF-F9A7-455F-AAE5-8E19721CC290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B39602-CBA9-4FA8-B992-981FF5C0BDCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="525" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10965" yWindow="345" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMaintDesign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="164">
   <si>
     <t>№</t>
   </si>
@@ -367,48 +367,27 @@
     <t>If the user clicks on the "View" item for any work order the next program should be opened for the selected work order:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) work_order</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Document" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing_combination</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Document" item for any work order the next program should be opened for the selected work order:</t>
   </si>
   <si>
     <t>If the user clicks on the "Budget" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) project [1]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Job survey" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) jobsurv [1]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Critical conditions" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (select) project_report [3]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Delay" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (select) project_delay</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Purchase" item for any project the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) purchase_order_line [2]</t>
-  </si>
-  <si>
     <t>The user should be able to move the "Search for project or work order" window.</t>
   </si>
   <si>
@@ -457,9 +436,6 @@
     <t xml:space="preserve"> - Job survey</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) project</t>
-  </si>
-  <si>
     <t>Context menu (Tree)</t>
   </si>
   <si>
@@ -505,36 +481,21 @@
     <t>If the user clicks on the "Attach work order" item the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) project_plan[Project_key]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Budget" item the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) project[1]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Job survey" item the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) jobsurv[1]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Critical conditions" item the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve">  - (select) project_report[3]</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Delay" item the next program should be opened for the selected project:</t>
   </si>
   <si>
     <t>If the user clicks on the "Purchase" item the next program should be opened for the selected project:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) purchase_order_line[2] </t>
-  </si>
-  <si>
     <t>If the user clicks on the "Export to MS Project" item the selected project should be exported to MS Project.</t>
   </si>
   <si>
@@ -559,22 +520,13 @@
     <t>If the user clicks on the "New project" item the next program should be opened for the selected work order:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) projec</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Attach work order" item the next program should be opened for the selected work order:</t>
   </si>
   <si>
     <t>If the user clicks on the "Remove work order" item the next program should be opened for the selected work order:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) project_plan</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Define conditions" item the next program should be opened for the selected work order:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) critcond</t>
   </si>
   <si>
     <t xml:space="preserve"> The "Question" window should appear. If the user clicks on the "Yes" button then the work order - project combination should be deleted.</t>
@@ -867,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,7 +842,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -902,10 +854,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,27 +866,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -944,9 +881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -965,92 +899,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1335,15 +1263,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1359,18 +1287,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="26" t="str">
         <f t="shared" ref="C5:C12" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
@@ -1380,7 +1308,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="str">
+      <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1390,7 +1318,7 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="33" t="str">
+      <c r="C7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1400,7 +1328,7 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1410,7 +1338,7 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1420,7 +1348,7 @@
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1430,7 +1358,7 @@
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="33" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
@@ -1440,24 +1368,24 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="34" t="str">
+      <c r="C12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>C85809</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32" t="str">
+      <c r="C14" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
@@ -1467,114 +1395,114 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="33" t="str">
+      <c r="C15" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="55" t="str">
+        <v>128</v>
+      </c>
+      <c r="C16" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="40"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="55" t="str">
+      <c r="C20" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="40"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="40"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="27" t="str">
         <f t="shared" ref="C29:C30" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85809","C85809")</f>
         <v>C85809</v>
       </c>
@@ -1584,7 +1512,7 @@
       <c r="B30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="33" t="str">
+      <c r="C30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>C85809</v>
       </c>
@@ -1594,7 +1522,7 @@
       <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="35" t="str">
+      <c r="C31" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
@@ -1604,7 +1532,7 @@
       <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="35" t="str">
+      <c r="C32" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
@@ -1614,83 +1542,83 @@
       <c r="B33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="35" t="str">
+      <c r="C33" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="55" t="str">
+      <c r="C34" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="35" t="str">
+      <c r="C43" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
@@ -1700,79 +1628,79 @@
       <c r="B44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="35" t="str">
+      <c r="C44" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="32" t="str">
+      <c r="C46" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="55" t="str">
+      <c r="C47" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="40"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="56"/>
+      <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="56"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="56"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="33" t="str">
+      <c r="C53" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
@@ -1782,7 +1710,7 @@
       <c r="B54" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="33" t="str">
+      <c r="C54" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
@@ -1792,7 +1720,7 @@
       <c r="B55" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="33" t="str">
+      <c r="C55" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
@@ -1802,7 +1730,7 @@
       <c r="B56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="33" t="str">
+      <c r="C56" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
@@ -1812,7 +1740,7 @@
       <c r="B57" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="33" t="str">
+      <c r="C57" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85811","C85811")</f>
         <v>C85811</v>
       </c>
@@ -1822,83 +1750,83 @@
       <c r="B58" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="33" t="str">
+      <c r="C58" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
         <v>C85812</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="57" t="str">
+      <c r="C59" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
         <v>C85812</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="36"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="36"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="36"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="36"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="36"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="53"/>
+      <c r="C65" s="36"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="53"/>
+      <c r="C66" s="36"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="19" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="43"/>
+      <c r="C67" s="34"/>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="33" t="str">
+      <c r="C68" s="27" t="str">
         <f t="shared" ref="C68:C76" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85812","C85812")</f>
         <v>C85812</v>
       </c>
@@ -1908,27 +1836,27 @@
       <c r="B69" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="33" t="str">
+      <c r="C69" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="33" t="str">
+      <c r="C70" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="33" t="str">
+      <c r="C71" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1938,7 +1866,7 @@
       <c r="B72" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="33" t="str">
+      <c r="C72" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1948,7 +1876,7 @@
       <c r="B73" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="33" t="str">
+      <c r="C73" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1958,7 +1886,7 @@
       <c r="B74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="33" t="str">
+      <c r="C74" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1966,9 +1894,9 @@
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="33" t="str">
+        <v>129</v>
+      </c>
+      <c r="C75" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1978,7 +1906,7 @@
       <c r="B76" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="33" t="str">
+      <c r="C76" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C85812</v>
       </c>
@@ -1988,77 +1916,77 @@
       <c r="B77" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="30"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="60"/>
+      <c r="C78" s="46"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="60"/>
+      <c r="C79" s="46"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="60"/>
+      <c r="C80" s="46"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="46"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="61"/>
+      <c r="C82" s="47"/>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="30"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="30"/>
+      <c r="C84" s="24"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="30"/>
+      <c r="C85" s="24"/>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="30"/>
+      <c r="C86" s="24"/>
     </row>
     <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="23" t="str">
+      <c r="C87" s="19" t="str">
         <f t="shared" ref="C87:C94" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85813","C85813")</f>
         <v>C85813</v>
       </c>
@@ -2068,17 +1996,17 @@
       <c r="B88" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="23" t="str">
+      <c r="C88" s="19" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="33" t="str">
+      <c r="C89" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
@@ -2088,7 +2016,7 @@
       <c r="B90" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="33" t="str">
+      <c r="C90" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
@@ -2098,7 +2026,7 @@
       <c r="B91" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="33" t="str">
+      <c r="C91" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
@@ -2108,7 +2036,7 @@
       <c r="B92" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="33" t="str">
+      <c r="C92" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
@@ -2118,84 +2046,84 @@
       <c r="B93" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="33" t="str">
+      <c r="C93" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="33" t="str">
+      <c r="C94" s="27" t="str">
         <f t="shared" si="3"/>
         <v>C85813</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="43"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="32" t="str">
+        <v>130</v>
+      </c>
+      <c r="C96" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="20" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C97" s="55" t="str">
+      <c r="C97" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="56"/>
+      <c r="C98" s="40"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="19" t="s">
+      <c r="A99" s="38"/>
+      <c r="B99" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="56"/>
+      <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="35" t="str">
+      <c r="C100" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="51"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="43"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="32" t="str">
+      <c r="C102" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
@@ -2205,7 +2133,7 @@
       <c r="B103" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="35" t="str">
+      <c r="C103" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
@@ -2215,572 +2143,591 @@
       <c r="B104" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C104" s="35" t="str">
+      <c r="C104" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="32" t="str">
+      <c r="C106" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="55" t="str">
+      <c r="C107" s="39" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="56"/>
+      <c r="C108" s="40"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="56"/>
+      <c r="C109" s="40"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="56"/>
+      <c r="C110" s="40"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C111" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="C111" s="40"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="56"/>
+      <c r="C112" s="40"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="56"/>
+      <c r="C113" s="40"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="54"/>
-      <c r="B114" s="19" t="s">
+      <c r="A114" s="38"/>
+      <c r="B114" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="56"/>
+      <c r="C114" s="40"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="24" t="s">
+      <c r="A115" s="31"/>
+      <c r="B115" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="57" t="str">
+      <c r="C115" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="53"/>
+      <c r="C116" s="36"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="19" t="s">
+      <c r="A117" s="32"/>
+      <c r="B117" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="43"/>
+      <c r="C117" s="34"/>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="57" t="str">
+      <c r="C118" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C119" s="43"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B826"," - (maint) project")</f>
+        <v xml:space="preserve"> - (maint) project</v>
+      </c>
+      <c r="C119" s="34"/>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="57" t="str">
+      <c r="C120" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="19" t="s">
+      <c r="A121" s="32"/>
+      <c r="B121" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1437"," - (maint) work_order")</f>
+        <v xml:space="preserve"> - (maint) work_order</v>
+      </c>
+      <c r="C121" s="34"/>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="31"/>
+      <c r="B122" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C121" s="43"/>
-    </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="57" t="str">
+      <c r="C122" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="19" t="s">
+      <c r="A123" s="32"/>
+      <c r="B123" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306","  - (browse) drawing_combination")</f>
+        <v xml:space="preserve">  - (browse) drawing_combination</v>
+      </c>
+      <c r="C123" s="34"/>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
+      <c r="B124" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="37"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="B125" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C125" s="34"/>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
+      <c r="B126" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="43"/>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="42"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="43"/>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="57" t="str">
+      <c r="C126" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="43"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B828"," - (maint) project [1]")</f>
+        <v xml:space="preserve"> - (maint) project [1]</v>
+      </c>
+      <c r="C127" s="34"/>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="57" t="str">
+        <v>112</v>
+      </c>
+      <c r="C128" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="43"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B554"," - (apicbf) jobsurv [1]")</f>
+        <v xml:space="preserve"> - (apicbf) jobsurv [1]</v>
+      </c>
+      <c r="C129" s="34"/>
     </row>
     <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C130" s="57" t="str">
+        <v>113</v>
+      </c>
+      <c r="C130" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="43"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B845"," - (select) project_report [3]")</f>
+        <v xml:space="preserve"> - (select) project_report [3]</v>
+      </c>
+      <c r="C131" s="34"/>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" s="57" t="str">
+        <v>114</v>
+      </c>
+      <c r="C132" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="43"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B836"," - (select) project_delay")</f>
+        <v xml:space="preserve"> - (select) project_delay</v>
+      </c>
+      <c r="C133" s="34"/>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C134" s="57" t="str">
+        <v>115</v>
+      </c>
+      <c r="C134" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85814","C85814")</f>
         <v>C85814</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="43"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B904"," - (browse) purchase_order_line [2]")</f>
+        <v xml:space="preserve"> - (browse) purchase_order_line [2]</v>
+      </c>
+      <c r="C135" s="34"/>
     </row>
     <row r="136" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="51"/>
+      <c r="A136" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="42"/>
+      <c r="C136" s="43"/>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C137" s="32" t="str">
+      <c r="C137" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="24" t="s">
+      <c r="A138" s="31"/>
+      <c r="B138" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C138" s="57" t="str">
+      <c r="C138" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C139" s="53"/>
+      <c r="C139" s="36"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="C140" s="36"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="C141" s="36"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" s="53"/>
+        <v>136</v>
+      </c>
+      <c r="C142" s="36"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
+      <c r="A143" s="35"/>
       <c r="B143" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="53"/>
+      <c r="C143" s="36"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="C144" s="36"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C145" s="53"/>
+      <c r="C145" s="36"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" s="53"/>
+        <v>131</v>
+      </c>
+      <c r="C146" s="36"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
+      <c r="A147" s="35"/>
       <c r="B147" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C147" s="53"/>
+      <c r="C147" s="36"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="53"/>
+      <c r="C148" s="36"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C149" s="53"/>
+      <c r="C149" s="36"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C150" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="C150" s="36"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C151" s="43"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="34"/>
     </row>
     <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="57" t="str">
+      <c r="A152" s="31"/>
+      <c r="B152" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
-      <c r="B153" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C153" s="43"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B826"," - (maint) project")</f>
+        <v xml:space="preserve"> - (maint) project</v>
+      </c>
+      <c r="C153" s="34"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
+      <c r="A154" s="48"/>
       <c r="B154" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C154" s="63" t="str">
+        <v>141</v>
+      </c>
+      <c r="C154" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C155" s="48"/>
+      <c r="A155" s="49"/>
+      <c r="B155" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B826"," - (maint) project")</f>
+        <v xml:space="preserve"> - (maint) project</v>
+      </c>
+      <c r="C155" s="52"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="45"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C156" s="46"/>
+        <v>142</v>
+      </c>
+      <c r="C156" s="53"/>
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="63" t="str">
+        <v>143</v>
+      </c>
+      <c r="C157" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="45"/>
-      <c r="B158" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C158" s="46"/>
+      <c r="A158" s="50"/>
+      <c r="B158" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B826"," - (maint) project")</f>
+        <v xml:space="preserve"> - (maint) project</v>
+      </c>
+      <c r="C158" s="53"/>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C159" s="36" t="str">
+        <v>144</v>
+      </c>
+      <c r="C159" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C160" s="57" t="str">
+        <v>145</v>
+      </c>
+      <c r="C160" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
-      <c r="B161" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="43"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C161" s="34"/>
     </row>
     <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C162" s="57" t="str">
+        <v>146</v>
+      </c>
+      <c r="C162" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="41"/>
-      <c r="B163" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="43"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B842"," - (maint) project_plan[Project_key]")</f>
+        <v xml:space="preserve"> - (maint) project_plan[Project_key]</v>
+      </c>
+      <c r="C163" s="34"/>
     </row>
     <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C164" s="57" t="str">
+        <v>147</v>
+      </c>
+      <c r="C164" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
-      <c r="B165" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="43"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B828"," - (maint) project[1]")</f>
+        <v xml:space="preserve"> - (maint) project[1]</v>
+      </c>
+      <c r="C165" s="34"/>
     </row>
     <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C166" s="57" t="str">
+      <c r="A166" s="31"/>
+      <c r="B166" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C166" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
-      <c r="B167" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C167" s="43"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B554"," - (apicbf) jobsurv [1]")</f>
+        <v xml:space="preserve"> - (apicbf) jobsurv [1]</v>
+      </c>
+      <c r="C167" s="34"/>
     </row>
     <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C168" s="57" t="str">
+      <c r="A168" s="31"/>
+      <c r="B168" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
-      <c r="B169" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C169" s="43"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B845"," - (select) project_report [3]")</f>
+        <v xml:space="preserve"> - (select) project_report [3]</v>
+      </c>
+      <c r="C169" s="34"/>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C170" s="57" t="str">
+        <v>150</v>
+      </c>
+      <c r="C170" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
-      <c r="B171" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" s="43"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B836"," - (select) project_delay")</f>
+        <v xml:space="preserve"> - (select) project_delay</v>
+      </c>
+      <c r="C171" s="34"/>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="63" t="str">
+        <v>151</v>
+      </c>
+      <c r="C172" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="45"/>
-      <c r="B173" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C173" s="46"/>
+      <c r="A173" s="50"/>
+      <c r="B173" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B904"," - (browse) purchase_order_line [2]")</f>
+        <v xml:space="preserve"> - (browse) purchase_order_line [2]</v>
+      </c>
+      <c r="C173" s="53"/>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C174" s="36" t="str">
+        <v>152</v>
+      </c>
+      <c r="C174" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
@@ -2788,183 +2735,260 @@
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C175" s="36" t="str">
+        <v>153</v>
+      </c>
+      <c r="C175" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C176" s="57" t="str">
+      <c r="A176" s="31"/>
+      <c r="B176" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
-      <c r="B177" s="62" t="s">
+      <c r="A177" s="35"/>
+      <c r="B177" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C177" s="53"/>
+      <c r="C177" s="36"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="52"/>
-      <c r="B178" s="62" t="s">
+      <c r="A178" s="35"/>
+      <c r="B178" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C178" s="53"/>
+      <c r="C178" s="36"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
-      <c r="B179" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C179" s="53"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="36"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
-      <c r="B180" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C180" s="53"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180" s="36"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="52"/>
-      <c r="B181" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="C181" s="53"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" s="36"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182" s="43"/>
+        <v>156</v>
+      </c>
+      <c r="C182" s="34"/>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C183" s="57" t="str">
+        <v>157</v>
+      </c>
+      <c r="C183" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
-      <c r="B184" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C184" s="43"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1437"," - (maint) work_order")</f>
+        <v xml:space="preserve"> - (maint) work_order</v>
+      </c>
+      <c r="C184" s="34"/>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
-      <c r="B185" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C185" s="57" t="str">
+      <c r="A185" s="31"/>
+      <c r="B185" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="41"/>
-      <c r="B186" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C186" s="43"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C186" s="34"/>
     </row>
     <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C187" s="57" t="str">
+        <v>159</v>
+      </c>
+      <c r="C187" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="52"/>
-      <c r="B188" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C188" s="53"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B826"," - (maint) project")</f>
+        <v xml:space="preserve"> - (maint) project</v>
+      </c>
+      <c r="C188" s="36"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="41"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C189" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="C189" s="34"/>
     </row>
     <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
+      <c r="A190" s="31"/>
       <c r="B190" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C190" s="57" t="str">
+        <v>160</v>
+      </c>
+      <c r="C190" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
-      <c r="B191" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C191" s="43"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B842"," - (maint) project_plan[Project_key]")</f>
+        <v xml:space="preserve"> - (maint) project_plan[Project_key]</v>
+      </c>
+      <c r="C191" s="34"/>
     </row>
     <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C192" s="57" t="str">
+        <v>161</v>
+      </c>
+      <c r="C192" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="52"/>
-      <c r="B193" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C193" s="53"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="55" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B840"," - (browse) project_plan")</f>
+        <v xml:space="preserve"> - (browse) project_plan</v>
+      </c>
+      <c r="C193" s="36"/>
     </row>
     <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="41"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C194" s="43"/>
+        <v>163</v>
+      </c>
+      <c r="C194" s="34"/>
     </row>
     <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C195" s="57" t="str">
+        <v>162</v>
+      </c>
+      <c r="C195" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85815","C85815")</f>
         <v>C85815</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="41"/>
-      <c r="B196" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C196" s="43"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="54" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B241"," - (browse) critcond")</f>
+        <v xml:space="preserve"> - (browse) critcond</v>
+      </c>
+      <c r="C196" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A138:A151"/>
+    <mergeCell ref="C138:C151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A176:A182"/>
+    <mergeCell ref="C176:C182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="C185:C186"/>
     <mergeCell ref="A195:A196"/>
     <mergeCell ref="C195:C196"/>
     <mergeCell ref="A187:A189"/>
@@ -2973,77 +2997,6 @@
     <mergeCell ref="C190:C191"/>
     <mergeCell ref="A192:A194"/>
     <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A176:A182"/>
-    <mergeCell ref="C176:C182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A138:A151"/>
-    <mergeCell ref="C138:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="C172:C173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3060,9 +3013,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="26" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="9" style="21" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3078,86 +3031,86 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="29"/>
+        <v>123</v>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5"/>
     </row>
